--- a/biology/Botanique/Canarium_ovatum/Canarium_ovatum.xlsx
+++ b/biology/Botanique/Canarium_ovatum/Canarium_ovatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canarium ovatum est une espèce de plantes dicotylédones de la famille des Burseraceae, originaire d'Asie du Sud-Est. Ce sont des arbres qui poussent dans la forêt en Indonésie le noyau appelé “Kenari” riche en fibres, magnésium, potassium, manganese. Ces arbres sont cultivés dans certain pays de cette region Asie Sud-Est comme aux Philippines pour leur fruits dont le noyau appelé noix de pili contient une amande comestible riche en matières grasses.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (10 décembre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (10 décembre 2018) :
 Canarium melioides Elmer
 Canarium pachyphyllum G.Perkins</t>
         </is>
